--- a/src/test/resources/FeatureExcelFiles/Datatwo.xlsx
+++ b/src/test/resources/FeatureExcelFiles/Datatwo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoha\OneDrive\Desktop\Key\KeywordDrivenFrameworkwithCucumber\src\test\resources\FeatureExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF23591-84D3-4DDF-BE7C-1F2A7253953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0038665-E1E5-4FA7-B036-DA301166C8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,140 @@
   </si>
   <si>
     <r>
-      <t>When Please ensure you correctly enter</t>
+      <t>And You should carefully enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Last Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that it matches your official documents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And Before proceeding further, make sure to enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Phone Number" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to receive OTP verification.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then In the form, select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Country" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from the dropdown list to specify your nationality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And To complete your application, kindly upload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Resume" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the specified format.</t>
+    </r>
+  </si>
+  <si>
+    <t>And generate a random number for the pin code before submission.</t>
+  </si>
+  <si>
+    <r>
+      <t>Then check the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Male" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option if applicable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When you correctly enter</t>
     </r>
     <r>
       <rPr>
@@ -130,139 +263,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>before moving to the next field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>And You should carefully enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Last Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>so that it matches your official documents.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>And Before proceeding further, make sure to enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Phone Number" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to receive OTP verification.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Then In the form, select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Country" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from the dropdown list to specify your nationality.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>And To complete your application, kindly upload</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Resume" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in the specified format.</t>
-    </r>
-  </si>
-  <si>
-    <t>And generate a random number for the pin code before submission.</t>
-  </si>
-  <si>
-    <r>
-      <t>Then check the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Male" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option if applicable.</t>
     </r>
   </si>
 </sst>
@@ -629,7 +629,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
